--- a/Data/births.xlsx
+++ b/Data/births.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Documents/GitHub/emu660-spring2025-Selenzel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2644F6A-EE8A-3C43-BEDC-155480102875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A8380A-3F33-1347-B93C-70382F108B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="3100" windowWidth="25840" windowHeight="14240" xr2:uid="{37EC6BE8-07D9-3547-B734-125D0061910C}"/>
+    <workbookView xWindow="2680" yWindow="2320" windowWidth="25840" windowHeight="14240" xr2:uid="{37EC6BE8-07D9-3547-B734-125D0061910C}"/>
   </bookViews>
   <sheets>
     <sheet name="Doğum" sheetId="1" r:id="rId1"/>
@@ -290,16 +290,16 @@
     <t>Adana</t>
   </si>
   <si>
-    <t>Doğum Miktarı</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
-    <t>Gender of the Baby</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Gender _Baby</t>
+  </si>
+  <si>
+    <t>Births</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:D973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,16 +701,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/Data/births.xlsx
+++ b/Data/births.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Documents/GitHub/emu660-spring2025-Selenzel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A8380A-3F33-1347-B93C-70382F108B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4729717D-0319-7342-B8D1-64BDFA2DB619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="2320" windowWidth="25840" windowHeight="14240" xr2:uid="{37EC6BE8-07D9-3547-B734-125D0061910C}"/>
+    <workbookView xWindow="2680" yWindow="2180" windowWidth="25840" windowHeight="14240" xr2:uid="{37EC6BE8-07D9-3547-B734-125D0061910C}"/>
   </bookViews>
   <sheets>
     <sheet name="Doğum" sheetId="1" r:id="rId1"/>
@@ -296,10 +296,10 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Gender _Baby</t>
+    <t>Births</t>
   </si>
   <si>
-    <t>Births</t>
+    <t>Gender_Baby</t>
   </si>
 </sst>
 </file>
@@ -704,13 +704,13 @@
         <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
